--- a/Documentation/Project_Schedule_Template.xlsx
+++ b/Documentation/Project_Schedule_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\IDMP\FraudBusters\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>PROJECT SCHEDULE TEMPLATE</t>
   </si>
   <si>
@@ -106,6 +100,9 @@
   </si>
   <si>
     <t>Trained model, presentation, report</t>
+  </si>
+  <si>
+    <t>https://github.com/jaybhuvaa/FraudBusters/tree/main#</t>
   </si>
 </sst>
 </file>
@@ -113,9 +110,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +139,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,18 +191,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -208,10 +201,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -223,18 +217,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,7 +532,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,22 +547,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -581,15 +575,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>27</v>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -604,14 +598,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>45926</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>45992</v>
       </c>
-      <c r="C6" s="13">
-        <v>0.5</v>
+      <c r="C6" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -639,15 +633,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
         <v>45921</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>45926</v>
       </c>
       <c r="E8" s="6">
@@ -659,15 +653,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
         <v>45935</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>45945</v>
       </c>
       <c r="E9" s="6">
@@ -679,15 +673,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11">
         <v>45950</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>45955</v>
       </c>
       <c r="E10" s="6">
@@ -699,15 +693,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="15">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
         <v>45957</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>45960</v>
       </c>
       <c r="E11" s="6">
@@ -719,82 +713,85 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11">
         <v>45961</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>45971</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>12</v>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11">
         <v>45972</v>
       </c>
-      <c r="D13" s="15">
-        <v>45978</v>
+      <c r="D13" s="11">
+        <v>45981</v>
       </c>
       <c r="E13" s="6">
-        <v>6</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="15">
-        <v>45979</v>
-      </c>
-      <c r="D14" s="15">
-        <v>45986</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45982</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45989</v>
       </c>
       <c r="E14" s="6">
         <v>7</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="15">
-        <v>45989</v>
-      </c>
-      <c r="D15" s="15">
-        <v>45996</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45992</v>
+      </c>
+      <c r="D15" s="11">
+        <v>45992</v>
       </c>
       <c r="E15" s="6">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -810,7 +807,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>